--- a/data/data-wrangling-intermediate/03.1b_edited-species-seeded3_unk-corrected_subplot.xlsx
+++ b/data/data-wrangling-intermediate/03.1b_edited-species-seeded3_unk-corrected_subplot.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/lossanna_arizona_edu/Documents/grad school/Gornish lab/04_RAMPS RestoreNet/RestoreNet/data/data-wrangling-intermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:40009_{09AA3EA2-7833-46D8-BF2B-61F162320472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBE97529-389F-45E5-83A3-84D5AF45252E}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:40009_{09AA3EA2-7833-46D8-BF2B-61F162320472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EECCCCF7-E10D-4DDF-9B0D-1B30D006454C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38535" yWindow="1020" windowWidth="17610" windowHeight="10545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <author>tc={161B1406-EBE9-43E7-96D7-D10D2A04C013}</author>
   </authors>
   <commentList>
-    <comment ref="J49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="J67" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -34,7 +34,7 @@
     BOCU was seeded at this site.</t>
       </text>
     </comment>
-    <comment ref="J64" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="J82" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="224">
   <si>
     <t>Site</t>
   </si>
@@ -653,6 +653,72 @@
   </si>
   <si>
     <t>Unk bunchGrass #1.Pleasant</t>
+  </si>
+  <si>
+    <t>AMIN3</t>
+  </si>
+  <si>
+    <t>AMMEI2</t>
+  </si>
+  <si>
+    <t>Amsinckia menziesii</t>
+  </si>
+  <si>
+    <t>BRNI</t>
+  </si>
+  <si>
+    <t>Brassica nigra</t>
+  </si>
+  <si>
+    <t>BRRU2</t>
+  </si>
+  <si>
+    <t>Bromus rubens</t>
+  </si>
+  <si>
+    <t>CRIN8</t>
+  </si>
+  <si>
+    <t>Cryptantha intermedia</t>
+  </si>
+  <si>
+    <t>ERIN4</t>
+  </si>
+  <si>
+    <t>Eriogonum inflatum</t>
+  </si>
+  <si>
+    <t>LACA7</t>
+  </si>
+  <si>
+    <t>Lasthenia californica</t>
+  </si>
+  <si>
+    <t>LAGL5</t>
+  </si>
+  <si>
+    <t>Layia glandulosa</t>
+  </si>
+  <si>
+    <t>MADI6</t>
+  </si>
+  <si>
+    <t>Matricaria discoidea</t>
+  </si>
+  <si>
+    <t>PEPE26</t>
+  </si>
+  <si>
+    <t>Pectocarya penicillata</t>
+  </si>
+  <si>
+    <t>SIIR</t>
+  </si>
+  <si>
+    <t>Sisymbrium irio</t>
+  </si>
+  <si>
+    <t>PROACASPP.Patagonia</t>
   </si>
 </sst>
 </file>
@@ -1604,10 +1670,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="J49" dT="2023-09-07T00:26:26.75" personId="{311096C7-B0C1-4891-AC79-A34E4BBD5975}" id="{7EFC49F7-813A-481D-9D1F-D131386C8A83}">
+  <threadedComment ref="J67" dT="2023-09-07T00:26:26.75" personId="{311096C7-B0C1-4891-AC79-A34E4BBD5975}" id="{7EFC49F7-813A-481D-9D1F-D131386C8A83}">
     <text>BOCU was seeded at this site.</text>
   </threadedComment>
-  <threadedComment ref="J64" dT="2023-09-07T00:28:01.57" personId="{311096C7-B0C1-4891-AC79-A34E4BBD5975}" id="{161B1406-EBE9-43E7-96D7-D10D2A04C013}">
+  <threadedComment ref="J82" dT="2023-09-07T00:28:01.57" personId="{311096C7-B0C1-4891-AC79-A34E4BBD5975}" id="{161B1406-EBE9-43E7-96D7-D10D2A04C013}">
     <text>Noted species was likely associated with warm mix, but this is a cool mix plot.</text>
   </threadedComment>
 </ThreadedComments>
@@ -1615,10 +1681,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J146"/>
+  <dimension ref="A1:J164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3075,159 +3142,159 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
         <v>37</v>
       </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46" s="1">
-        <v>0</v>
+      <c r="D46" t="s">
+        <v>202</v>
+      </c>
+      <c r="E46" t="s">
+        <v>203</v>
+      </c>
+      <c r="F46" t="s">
+        <v>204</v>
+      </c>
+      <c r="G46" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47" s="1">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
+        <v>202</v>
+      </c>
+      <c r="E47" t="s">
+        <v>203</v>
+      </c>
+      <c r="F47" t="s">
+        <v>204</v>
+      </c>
+      <c r="G47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48" s="1">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="D48" t="s">
+        <v>202</v>
+      </c>
+      <c r="E48" t="s">
+        <v>203</v>
+      </c>
+      <c r="F48" t="s">
+        <v>204</v>
+      </c>
+      <c r="G48" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>60</v>
+        <v>205</v>
       </c>
       <c r="E49" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
+        <v>206</v>
       </c>
       <c r="G49" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c r="E50" t="s">
-        <v>63</v>
+        <v>205</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
+        <v>206</v>
       </c>
       <c r="G50" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>199</v>
@@ -3235,121 +3302,121 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51" s="1">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="D51" t="s">
+        <v>205</v>
+      </c>
+      <c r="E51" t="s">
+        <v>205</v>
+      </c>
+      <c r="F51" t="s">
+        <v>206</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
       </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52" s="1">
-        <v>0</v>
+      <c r="D52" t="s">
+        <v>207</v>
+      </c>
+      <c r="E52" t="s">
+        <v>207</v>
+      </c>
+      <c r="F52" t="s">
+        <v>208</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>32</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>37</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53" s="1">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="D53" t="s">
+        <v>209</v>
+      </c>
+      <c r="E53" t="s">
+        <v>209</v>
+      </c>
+      <c r="F53" t="s">
+        <v>210</v>
+      </c>
+      <c r="G53" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>66</v>
+        <v>211</v>
       </c>
       <c r="E54" t="s">
-        <v>67</v>
+        <v>211</v>
       </c>
       <c r="F54" t="s">
-        <v>68</v>
+        <v>212</v>
       </c>
       <c r="G54" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H54" t="s">
         <v>18</v>
@@ -3358,30 +3425,30 @@
         <v>19</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C55" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>69</v>
+        <v>213</v>
       </c>
       <c r="E55" t="s">
-        <v>70</v>
+        <v>213</v>
       </c>
       <c r="F55" t="s">
-        <v>68</v>
+        <v>214</v>
       </c>
       <c r="G55" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H55" t="s">
         <v>18</v>
@@ -3395,127 +3462,127 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C56" t="s">
-        <v>37</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56" s="1">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>213</v>
+      </c>
+      <c r="E56" t="s">
+        <v>213</v>
+      </c>
+      <c r="F56" t="s">
+        <v>214</v>
+      </c>
+      <c r="G56" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57" s="1">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="D57" t="s">
+        <v>215</v>
+      </c>
+      <c r="E57" t="s">
+        <v>215</v>
+      </c>
+      <c r="F57" t="s">
+        <v>216</v>
+      </c>
+      <c r="G57" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58" s="1">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>217</v>
+      </c>
+      <c r="E58" t="s">
+        <v>217</v>
+      </c>
+      <c r="F58" t="s">
+        <v>218</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C59" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>72</v>
+        <v>219</v>
       </c>
       <c r="E59" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="F59" t="s">
-        <v>74</v>
+        <v>220</v>
       </c>
       <c r="G59" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H59" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>199</v>
@@ -3523,127 +3590,127 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C60" t="s">
         <v>37</v>
       </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60" s="1">
-        <v>0</v>
+      <c r="D60" t="s">
+        <v>219</v>
+      </c>
+      <c r="E60" t="s">
+        <v>219</v>
+      </c>
+      <c r="F60" t="s">
+        <v>220</v>
+      </c>
+      <c r="G60" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>19</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C61" t="s">
         <v>13</v>
       </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61" s="1">
-        <v>0</v>
+      <c r="D61" t="s">
+        <v>219</v>
+      </c>
+      <c r="E61" t="s">
+        <v>219</v>
+      </c>
+      <c r="F61" t="s">
+        <v>220</v>
+      </c>
+      <c r="G61" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>19</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
       </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62" s="1">
-        <v>0</v>
+      <c r="D62" t="s">
+        <v>221</v>
+      </c>
+      <c r="E62" t="s">
+        <v>221</v>
+      </c>
+      <c r="F62" t="s">
+        <v>222</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>19</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D63" t="s">
-        <v>76</v>
+        <v>221</v>
       </c>
       <c r="E63" t="s">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="F63" t="s">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="G63" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>199</v>
@@ -3651,7 +3718,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B64" t="s">
         <v>59</v>
@@ -3659,31 +3726,31 @@
       <c r="C64" t="s">
         <v>37</v>
       </c>
-      <c r="D64" t="s">
-        <v>79</v>
-      </c>
-      <c r="E64" t="s">
-        <v>80</v>
-      </c>
-      <c r="F64" t="s">
-        <v>81</v>
-      </c>
-      <c r="G64" t="s">
-        <v>18</v>
-      </c>
-      <c r="H64" t="s">
-        <v>18</v>
-      </c>
-      <c r="I64" t="s">
-        <v>32</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>199</v>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B65" t="s">
         <v>59</v>
@@ -3691,37 +3758,37 @@
       <c r="C65" t="s">
         <v>14</v>
       </c>
-      <c r="D65" t="s">
-        <v>62</v>
-      </c>
-      <c r="E65" t="s">
-        <v>82</v>
-      </c>
-      <c r="F65" t="s">
-        <v>83</v>
-      </c>
-      <c r="G65" t="s">
-        <v>18</v>
-      </c>
-      <c r="H65" t="s">
-        <v>18</v>
-      </c>
-      <c r="I65" t="s">
-        <v>18</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>199</v>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="B66" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -3747,185 +3814,185 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="B67" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67" s="1">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="D67" t="s">
+        <v>60</v>
+      </c>
+      <c r="E67" t="s">
+        <v>201</v>
+      </c>
+      <c r="F67" t="s">
+        <v>61</v>
+      </c>
+      <c r="G67" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67" t="s">
+        <v>32</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
       </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68" s="1">
-        <v>0</v>
+      <c r="D68" t="s">
+        <v>62</v>
+      </c>
+      <c r="E68" t="s">
+        <v>63</v>
+      </c>
+      <c r="F68" t="s">
+        <v>64</v>
+      </c>
+      <c r="G68" t="s">
+        <v>18</v>
+      </c>
+      <c r="H68" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C69" t="s">
         <v>13</v>
       </c>
-      <c r="D69" t="s">
-        <v>86</v>
-      </c>
-      <c r="E69" t="s">
-        <v>86</v>
-      </c>
-      <c r="F69" t="s">
-        <v>87</v>
-      </c>
-      <c r="G69" t="s">
-        <v>6</v>
-      </c>
-      <c r="H69" t="s">
-        <v>18</v>
-      </c>
-      <c r="I69" t="s">
-        <v>19</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>199</v>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C70" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" t="s">
-        <v>88</v>
-      </c>
-      <c r="E70" t="s">
-        <v>88</v>
-      </c>
-      <c r="F70" t="s">
-        <v>89</v>
-      </c>
-      <c r="G70" t="s">
-        <v>46</v>
-      </c>
-      <c r="H70" t="s">
-        <v>90</v>
-      </c>
-      <c r="I70" t="s">
-        <v>32</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>199</v>
+        <v>14</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B71" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C71" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" t="s">
-        <v>91</v>
-      </c>
-      <c r="E71" t="s">
-        <v>91</v>
-      </c>
-      <c r="F71" t="s">
-        <v>92</v>
-      </c>
-      <c r="G71" t="s">
-        <v>6</v>
-      </c>
-      <c r="H71" t="s">
-        <v>18</v>
-      </c>
-      <c r="I71" t="s">
-        <v>19</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>199</v>
+        <v>37</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B72" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C72" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D72" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="E72" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="F72" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="G72" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H72" t="s">
         <v>18</v>
@@ -3939,31 +4006,31 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B73" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D73" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="E73" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="F73" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="G73" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="H73" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I73" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>199</v>
@@ -3971,124 +4038,124 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" t="s">
-        <v>100</v>
-      </c>
-      <c r="E74" t="s">
-        <v>100</v>
-      </c>
-      <c r="F74" t="s">
-        <v>101</v>
-      </c>
-      <c r="G74" t="s">
-        <v>6</v>
-      </c>
-      <c r="H74" t="s">
-        <v>47</v>
-      </c>
-      <c r="I74" t="s">
-        <v>19</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>199</v>
+        <v>37</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" t="s">
-        <v>102</v>
-      </c>
-      <c r="E75" t="s">
-        <v>102</v>
-      </c>
-      <c r="F75" t="s">
-        <v>103</v>
-      </c>
-      <c r="G75" t="s">
-        <v>6</v>
-      </c>
-      <c r="H75" t="s">
-        <v>18</v>
-      </c>
-      <c r="I75" t="s">
-        <v>19</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>199</v>
+        <v>14</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C76" t="s">
         <v>13</v>
       </c>
-      <c r="D76" t="s">
-        <v>104</v>
-      </c>
-      <c r="E76" t="s">
-        <v>104</v>
-      </c>
-      <c r="F76" t="s">
-        <v>105</v>
-      </c>
-      <c r="G76" t="s">
-        <v>46</v>
-      </c>
-      <c r="H76" t="s">
-        <v>47</v>
-      </c>
-      <c r="I76" t="s">
-        <v>19</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>199</v>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B77" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D77" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="E77" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="F77" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="G77" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H77" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I77" t="s">
         <v>32</v>
@@ -4099,118 +4166,118 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78" t="s">
-        <v>54</v>
-      </c>
-      <c r="E78" t="s">
-        <v>108</v>
-      </c>
-      <c r="F78" t="s">
-        <v>109</v>
-      </c>
-      <c r="G78" t="s">
-        <v>18</v>
-      </c>
-      <c r="H78" t="s">
-        <v>18</v>
-      </c>
-      <c r="I78" t="s">
-        <v>19</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>199</v>
+        <v>37</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B79" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C79" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" t="s">
-        <v>110</v>
-      </c>
-      <c r="E79" t="s">
-        <v>111</v>
-      </c>
-      <c r="F79" t="s">
-        <v>112</v>
-      </c>
-      <c r="G79" t="s">
-        <v>18</v>
-      </c>
-      <c r="H79" t="s">
-        <v>18</v>
-      </c>
-      <c r="I79" t="s">
-        <v>19</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>199</v>
+        <v>13</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B80" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" t="s">
-        <v>113</v>
-      </c>
-      <c r="E80" t="s">
-        <v>114</v>
-      </c>
-      <c r="F80" t="s">
-        <v>115</v>
-      </c>
-      <c r="G80" t="s">
-        <v>18</v>
-      </c>
-      <c r="H80" t="s">
-        <v>18</v>
-      </c>
-      <c r="I80" t="s">
-        <v>19</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>199</v>
+        <v>14</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="E81" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="F81" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="G81" t="s">
         <v>18</v>
@@ -4219,7 +4286,7 @@
         <v>18</v>
       </c>
       <c r="I81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>199</v>
@@ -4227,22 +4294,22 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C82" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D82" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="E82" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="F82" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="G82" t="s">
         <v>18</v>
@@ -4259,22 +4326,22 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="E83" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="F83" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="G83" t="s">
         <v>18</v>
@@ -4283,7 +4350,7 @@
         <v>18</v>
       </c>
       <c r="I83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>199</v>
@@ -4291,7 +4358,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
         <v>85</v>
@@ -4323,13 +4390,13 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -4355,63 +4422,63 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
         <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86" t="s">
-        <v>126</v>
-      </c>
-      <c r="E86" t="s">
-        <v>126</v>
-      </c>
-      <c r="F86" t="s">
-        <v>127</v>
-      </c>
-      <c r="G86" t="s">
-        <v>6</v>
-      </c>
-      <c r="H86" t="s">
-        <v>47</v>
-      </c>
-      <c r="I86" t="s">
-        <v>32</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>199</v>
+        <v>14</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="B87" t="s">
         <v>85</v>
       </c>
       <c r="C87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="F87" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="G87" t="s">
         <v>6</v>
       </c>
       <c r="H87" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I87" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>199</v>
@@ -4419,7 +4486,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="B88" t="s">
         <v>85</v>
@@ -4428,22 +4495,22 @@
         <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="E88" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="F88" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="G88" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="H88" t="s">
         <v>90</v>
       </c>
       <c r="I88" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>199</v>
@@ -4451,22 +4518,22 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="B89" t="s">
         <v>85</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="E89" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="F89" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="G89" t="s">
         <v>6</v>
@@ -4475,7 +4542,7 @@
         <v>18</v>
       </c>
       <c r="I89" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>199</v>
@@ -4483,22 +4550,22 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="B90" t="s">
         <v>85</v>
       </c>
       <c r="C90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="E90" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="F90" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="G90" t="s">
         <v>6</v>
@@ -4507,7 +4574,7 @@
         <v>18</v>
       </c>
       <c r="I90" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>199</v>
@@ -4515,7 +4582,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="B91" t="s">
         <v>85</v>
@@ -4524,22 +4591,22 @@
         <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="E91" t="s">
-        <v>133</v>
+        <v>223</v>
       </c>
       <c r="F91" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="G91" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="H91" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I91" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>199</v>
@@ -4547,7 +4614,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="B92" t="s">
         <v>85</v>
@@ -4556,19 +4623,19 @@
         <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="E92" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="F92" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="G92" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="H92" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I92" t="s">
         <v>19</v>
@@ -4579,25 +4646,25 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="B93" t="s">
         <v>85</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="E93" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="F93" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="G93" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="H93" t="s">
         <v>18</v>
@@ -4611,7 +4678,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="B94" t="s">
         <v>85</v>
@@ -4620,16 +4687,16 @@
         <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="E94" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="F94" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="G94" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="H94" t="s">
         <v>47</v>
@@ -4643,31 +4710,31 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="B95" t="s">
         <v>85</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D95" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="E95" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="F95" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="G95" t="s">
         <v>6</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="I95" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>199</v>
@@ -4675,28 +4742,28 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="B96" t="s">
         <v>85</v>
       </c>
       <c r="C96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D96" t="s">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="E96" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="F96" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="G96" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I96" t="s">
         <v>19</v>
@@ -4707,28 +4774,28 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="B97" t="s">
         <v>85</v>
       </c>
       <c r="C97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D97" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="E97" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="F97" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="G97" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I97" t="s">
         <v>19</v>
@@ -4739,28 +4806,28 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="B98" t="s">
         <v>85</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="E98" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="F98" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="G98" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I98" t="s">
         <v>19</v>
@@ -4771,28 +4838,28 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="B99" t="s">
         <v>85</v>
       </c>
       <c r="C99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D99" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="E99" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F99" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="G99" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I99" t="s">
         <v>19</v>
@@ -4803,31 +4870,31 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="B100" t="s">
         <v>85</v>
       </c>
       <c r="C100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="E100" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="F100" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="G100" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H100" t="s">
         <v>18</v>
       </c>
       <c r="I100" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>199</v>
@@ -4835,7 +4902,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="B101" t="s">
         <v>85</v>
@@ -4844,16 +4911,16 @@
         <v>13</v>
       </c>
       <c r="D101" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="E101" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="F101" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="G101" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H101" t="s">
         <v>18</v>
@@ -4873,28 +4940,28 @@
         <v>85</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
-      </c>
-      <c r="D102" t="s">
-        <v>142</v>
-      </c>
-      <c r="E102" t="s">
-        <v>143</v>
-      </c>
-      <c r="F102" t="s">
-        <v>144</v>
-      </c>
-      <c r="G102" t="s">
-        <v>6</v>
-      </c>
-      <c r="H102" t="s">
-        <v>18</v>
-      </c>
-      <c r="I102" t="s">
-        <v>19</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>199</v>
+        <v>12</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -4907,26 +4974,26 @@
       <c r="C103" t="s">
         <v>14</v>
       </c>
-      <c r="D103" t="s">
-        <v>145</v>
-      </c>
-      <c r="E103" t="s">
-        <v>145</v>
-      </c>
-      <c r="F103" t="s">
-        <v>146</v>
-      </c>
-      <c r="G103" t="s">
-        <v>18</v>
-      </c>
-      <c r="H103" t="s">
-        <v>18</v>
-      </c>
-      <c r="I103" t="s">
-        <v>19</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>199</v>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -4937,25 +5004,25 @@
         <v>85</v>
       </c>
       <c r="C104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D104" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="E104" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="F104" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="G104" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H104" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I104" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>199</v>
@@ -4969,16 +5036,16 @@
         <v>85</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D105" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="E105" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="F105" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="G105" t="s">
         <v>6</v>
@@ -4987,7 +5054,7 @@
         <v>90</v>
       </c>
       <c r="I105" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>199</v>
@@ -5004,22 +5071,22 @@
         <v>13</v>
       </c>
       <c r="D106" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="E106" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="F106" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="H106" t="s">
         <v>90</v>
       </c>
       <c r="I106" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>199</v>
@@ -5033,19 +5100,19 @@
         <v>85</v>
       </c>
       <c r="C107" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="E107" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="F107" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="G107" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H107" t="s">
         <v>18</v>
@@ -5065,25 +5132,25 @@
         <v>85</v>
       </c>
       <c r="C108" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D108" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="E108" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="F108" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="G108" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H108" t="s">
         <v>18</v>
       </c>
       <c r="I108" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>199</v>
@@ -5097,25 +5164,25 @@
         <v>85</v>
       </c>
       <c r="C109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D109" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="E109" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="F109" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="G109" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H109" t="s">
         <v>18</v>
       </c>
       <c r="I109" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>199</v>
@@ -5132,16 +5199,16 @@
         <v>13</v>
       </c>
       <c r="D110" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="E110" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="F110" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="G110" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="H110" t="s">
         <v>18</v>
@@ -5164,16 +5231,16 @@
         <v>14</v>
       </c>
       <c r="D111" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="E111" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="F111" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="G111" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="H111" t="s">
         <v>18</v>
@@ -5193,22 +5260,22 @@
         <v>85</v>
       </c>
       <c r="C112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D112" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="E112" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="F112" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="G112" t="s">
         <v>6</v>
       </c>
       <c r="H112" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I112" t="s">
         <v>19</v>
@@ -5225,22 +5292,22 @@
         <v>85</v>
       </c>
       <c r="C113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D113" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="E113" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="F113" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="G113" t="s">
         <v>6</v>
       </c>
       <c r="H113" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I113" t="s">
         <v>19</v>
@@ -5257,16 +5324,16 @@
         <v>85</v>
       </c>
       <c r="C114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D114" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="E114" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="F114" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="G114" t="s">
         <v>6</v>
@@ -5289,16 +5356,16 @@
         <v>85</v>
       </c>
       <c r="C115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D115" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E115" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="F115" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="G115" t="s">
         <v>6</v>
@@ -5321,16 +5388,16 @@
         <v>85</v>
       </c>
       <c r="C116" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D116" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E116" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="F116" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="G116" t="s">
         <v>6</v>
@@ -5356,19 +5423,19 @@
         <v>12</v>
       </c>
       <c r="D117" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="E117" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="F117" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="G117" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H117" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I117" t="s">
         <v>19</v>
@@ -5388,19 +5455,19 @@
         <v>12</v>
       </c>
       <c r="D118" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="E118" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="F118" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="H118" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I118" t="s">
         <v>19</v>
@@ -5420,22 +5487,22 @@
         <v>13</v>
       </c>
       <c r="D119" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E119" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="F119" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="G119" t="s">
         <v>6</v>
       </c>
       <c r="H119" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I119" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>199</v>
@@ -5449,19 +5516,19 @@
         <v>85</v>
       </c>
       <c r="C120" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D120" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="E120" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="F120" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="G120" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H120" t="s">
         <v>18</v>
@@ -5481,16 +5548,16 @@
         <v>85</v>
       </c>
       <c r="C121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D121" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="E121" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="F121" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="G121" t="s">
         <v>18</v>
@@ -5513,16 +5580,16 @@
         <v>85</v>
       </c>
       <c r="C122" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D122" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="E122" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="F122" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="G122" t="s">
         <v>18</v>
@@ -5545,22 +5612,22 @@
         <v>85</v>
       </c>
       <c r="C123" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D123" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="E123" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="F123" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="G123" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H123" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I123" t="s">
         <v>19</v>
@@ -5580,22 +5647,22 @@
         <v>13</v>
       </c>
       <c r="D124" t="s">
-        <v>167</v>
+        <v>88</v>
       </c>
       <c r="E124" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="F124" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="G124" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="H124" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="I124" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>199</v>
@@ -5609,16 +5676,16 @@
         <v>85</v>
       </c>
       <c r="C125" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D125" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="E125" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="F125" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="G125" t="s">
         <v>18</v>
@@ -5627,7 +5694,7 @@
         <v>18</v>
       </c>
       <c r="I125" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>199</v>
@@ -5644,13 +5711,13 @@
         <v>14</v>
       </c>
       <c r="D126" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="E126" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="F126" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="G126" t="s">
         <v>18</v>
@@ -5676,13 +5743,13 @@
         <v>12</v>
       </c>
       <c r="D127" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="E127" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="F127" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="G127" t="s">
         <v>18</v>
@@ -5708,13 +5775,13 @@
         <v>13</v>
       </c>
       <c r="D128" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="E128" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="F128" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="G128" t="s">
         <v>18</v>
@@ -5737,25 +5804,25 @@
         <v>85</v>
       </c>
       <c r="C129" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D129" t="s">
-        <v>176</v>
+        <v>93</v>
       </c>
       <c r="E129" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="F129" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="G129" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H129" t="s">
         <v>18</v>
       </c>
       <c r="I129" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>199</v>
@@ -5769,25 +5836,25 @@
         <v>85</v>
       </c>
       <c r="C130" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D130" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="E130" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="F130" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="G130" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H130" t="s">
         <v>18</v>
       </c>
       <c r="I130" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>199</v>
@@ -5801,16 +5868,16 @@
         <v>85</v>
       </c>
       <c r="C131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D131" t="s">
-        <v>182</v>
+        <v>93</v>
       </c>
       <c r="E131" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="F131" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="G131" t="s">
         <v>6</v>
@@ -5819,7 +5886,7 @@
         <v>18</v>
       </c>
       <c r="I131" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>199</v>
@@ -5833,25 +5900,25 @@
         <v>85</v>
       </c>
       <c r="C132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D132" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="E132" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="F132" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="G132" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H132" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I132" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>199</v>
@@ -5865,16 +5932,16 @@
         <v>85</v>
       </c>
       <c r="C133" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D133" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="E133" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="F133" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="G133" t="s">
         <v>6</v>
@@ -5883,7 +5950,7 @@
         <v>47</v>
       </c>
       <c r="I133" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>199</v>
@@ -5891,118 +5958,118 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="B134" t="s">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="C134" t="s">
-        <v>35</v>
-      </c>
-      <c r="D134">
-        <v>0</v>
-      </c>
-      <c r="E134">
-        <v>0</v>
-      </c>
-      <c r="F134">
-        <v>0</v>
-      </c>
-      <c r="G134">
-        <v>0</v>
-      </c>
-      <c r="H134">
-        <v>0</v>
-      </c>
-      <c r="I134">
-        <v>0</v>
-      </c>
-      <c r="J134" s="1">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="D134" t="s">
+        <v>157</v>
+      </c>
+      <c r="E134" t="s">
+        <v>157</v>
+      </c>
+      <c r="F134" t="s">
+        <v>158</v>
+      </c>
+      <c r="G134" t="s">
+        <v>6</v>
+      </c>
+      <c r="H134" t="s">
+        <v>47</v>
+      </c>
+      <c r="I134" t="s">
+        <v>19</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="B135" t="s">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="C135" t="s">
-        <v>13</v>
-      </c>
-      <c r="D135">
-        <v>0</v>
-      </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
-      <c r="G135">
-        <v>0</v>
-      </c>
-      <c r="H135">
-        <v>0</v>
-      </c>
-      <c r="I135">
-        <v>0</v>
-      </c>
-      <c r="J135" s="1">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="D135" t="s">
+        <v>159</v>
+      </c>
+      <c r="E135" t="s">
+        <v>160</v>
+      </c>
+      <c r="F135" t="s">
+        <v>161</v>
+      </c>
+      <c r="G135" t="s">
+        <v>18</v>
+      </c>
+      <c r="H135" t="s">
+        <v>18</v>
+      </c>
+      <c r="I135" t="s">
+        <v>19</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="B136" t="s">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="C136" t="s">
-        <v>38</v>
-      </c>
-      <c r="D136">
-        <v>0</v>
-      </c>
-      <c r="E136">
-        <v>0</v>
-      </c>
-      <c r="F136">
-        <v>0</v>
-      </c>
-      <c r="G136">
-        <v>0</v>
-      </c>
-      <c r="H136">
-        <v>0</v>
-      </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
-      <c r="J136" s="1">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="D136" t="s">
+        <v>104</v>
+      </c>
+      <c r="E136" t="s">
+        <v>104</v>
+      </c>
+      <c r="F136" t="s">
+        <v>105</v>
+      </c>
+      <c r="G136" t="s">
+        <v>46</v>
+      </c>
+      <c r="H136" t="s">
+        <v>47</v>
+      </c>
+      <c r="I136" t="s">
+        <v>19</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="B137" t="s">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="C137" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D137" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="E137" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="F137" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="G137" t="s">
         <v>6</v>
@@ -6014,33 +6081,33 @@
         <v>32</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="B138" t="s">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="C138" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D138" t="s">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="E138" t="s">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="F138" t="s">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="G138" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H138" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I138" t="s">
         <v>19</v>
@@ -6051,28 +6118,28 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="B139" t="s">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="C139" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D139" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="E139" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="F139" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="G139" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H139" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I139" t="s">
         <v>19</v>
@@ -6083,225 +6150,801 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="B140" t="s">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="C140" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D140" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="E140" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="F140" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="G140" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H140" t="s">
         <v>18</v>
       </c>
       <c r="I140" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>197</v>
+        <v>125</v>
       </c>
       <c r="B141" t="s">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="C141" t="s">
-        <v>38</v>
-      </c>
-      <c r="D141">
-        <v>0</v>
-      </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-      <c r="F141">
-        <v>0</v>
-      </c>
-      <c r="G141">
-        <v>0</v>
-      </c>
-      <c r="H141">
-        <v>0</v>
-      </c>
-      <c r="I141">
-        <v>0</v>
-      </c>
-      <c r="J141" s="1">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="D141" t="s">
+        <v>167</v>
+      </c>
+      <c r="E141" t="s">
+        <v>168</v>
+      </c>
+      <c r="F141" t="s">
+        <v>169</v>
+      </c>
+      <c r="G141" t="s">
+        <v>18</v>
+      </c>
+      <c r="H141" t="s">
+        <v>18</v>
+      </c>
+      <c r="I141" t="s">
+        <v>19</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>197</v>
+        <v>125</v>
       </c>
       <c r="B142" t="s">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="C142" t="s">
         <v>13</v>
       </c>
-      <c r="D142">
-        <v>0</v>
-      </c>
-      <c r="E142">
-        <v>0</v>
-      </c>
-      <c r="F142">
-        <v>0</v>
-      </c>
-      <c r="G142">
-        <v>0</v>
-      </c>
-      <c r="H142">
-        <v>0</v>
-      </c>
-      <c r="I142">
-        <v>0</v>
-      </c>
-      <c r="J142" s="1">
-        <v>0</v>
+      <c r="D142" t="s">
+        <v>167</v>
+      </c>
+      <c r="E142" t="s">
+        <v>168</v>
+      </c>
+      <c r="F142" t="s">
+        <v>169</v>
+      </c>
+      <c r="G142" t="s">
+        <v>18</v>
+      </c>
+      <c r="H142" t="s">
+        <v>18</v>
+      </c>
+      <c r="I142" t="s">
+        <v>19</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>197</v>
+        <v>125</v>
       </c>
       <c r="B143" t="s">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="C143" t="s">
-        <v>35</v>
-      </c>
-      <c r="D143">
-        <v>0</v>
-      </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-      <c r="F143">
-        <v>0</v>
-      </c>
-      <c r="G143">
-        <v>0</v>
-      </c>
-      <c r="H143">
-        <v>0</v>
-      </c>
-      <c r="I143">
-        <v>0</v>
-      </c>
-      <c r="J143" s="1">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="D143" t="s">
+        <v>170</v>
+      </c>
+      <c r="E143" t="s">
+        <v>171</v>
+      </c>
+      <c r="F143" t="s">
+        <v>172</v>
+      </c>
+      <c r="G143" t="s">
+        <v>18</v>
+      </c>
+      <c r="H143" t="s">
+        <v>18</v>
+      </c>
+      <c r="I143" t="s">
+        <v>19</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>198</v>
+        <v>125</v>
       </c>
       <c r="B144" t="s">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="C144" t="s">
-        <v>38</v>
-      </c>
-      <c r="D144">
-        <v>0</v>
-      </c>
-      <c r="E144">
-        <v>0</v>
-      </c>
-      <c r="F144">
-        <v>0</v>
-      </c>
-      <c r="G144">
-        <v>0</v>
-      </c>
-      <c r="H144">
-        <v>0</v>
-      </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
-      <c r="J144" s="1">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="D144" t="s">
+        <v>173</v>
+      </c>
+      <c r="E144" t="s">
+        <v>174</v>
+      </c>
+      <c r="F144" t="s">
+        <v>175</v>
+      </c>
+      <c r="G144" t="s">
+        <v>18</v>
+      </c>
+      <c r="H144" t="s">
+        <v>18</v>
+      </c>
+      <c r="I144" t="s">
+        <v>19</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>198</v>
+        <v>125</v>
       </c>
       <c r="B145" t="s">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="C145" t="s">
-        <v>13</v>
-      </c>
-      <c r="D145">
-        <v>0</v>
-      </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
-      <c r="F145">
-        <v>0</v>
-      </c>
-      <c r="G145">
-        <v>0</v>
-      </c>
-      <c r="H145">
-        <v>0</v>
-      </c>
-      <c r="I145">
-        <v>0</v>
-      </c>
-      <c r="J145" s="1">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="D145" t="s">
+        <v>173</v>
+      </c>
+      <c r="E145" t="s">
+        <v>174</v>
+      </c>
+      <c r="F145" t="s">
+        <v>175</v>
+      </c>
+      <c r="G145" t="s">
+        <v>18</v>
+      </c>
+      <c r="H145" t="s">
+        <v>18</v>
+      </c>
+      <c r="I145" t="s">
+        <v>19</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
+        <v>125</v>
+      </c>
+      <c r="B146" t="s">
+        <v>85</v>
+      </c>
+      <c r="C146" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" t="s">
+        <v>173</v>
+      </c>
+      <c r="E146" t="s">
+        <v>174</v>
+      </c>
+      <c r="F146" t="s">
+        <v>175</v>
+      </c>
+      <c r="G146" t="s">
+        <v>18</v>
+      </c>
+      <c r="H146" t="s">
+        <v>18</v>
+      </c>
+      <c r="I146" t="s">
+        <v>19</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>125</v>
+      </c>
+      <c r="B147" t="s">
+        <v>85</v>
+      </c>
+      <c r="C147" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" t="s">
+        <v>176</v>
+      </c>
+      <c r="E147" t="s">
+        <v>177</v>
+      </c>
+      <c r="F147" t="s">
+        <v>178</v>
+      </c>
+      <c r="G147" t="s">
+        <v>18</v>
+      </c>
+      <c r="H147" t="s">
+        <v>18</v>
+      </c>
+      <c r="I147" t="s">
+        <v>32</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>125</v>
+      </c>
+      <c r="B148" t="s">
+        <v>85</v>
+      </c>
+      <c r="C148" t="s">
+        <v>14</v>
+      </c>
+      <c r="D148" t="s">
+        <v>179</v>
+      </c>
+      <c r="E148" t="s">
+        <v>180</v>
+      </c>
+      <c r="F148" t="s">
+        <v>181</v>
+      </c>
+      <c r="G148" t="s">
+        <v>18</v>
+      </c>
+      <c r="H148" t="s">
+        <v>18</v>
+      </c>
+      <c r="I148" t="s">
+        <v>32</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>125</v>
+      </c>
+      <c r="B149" t="s">
+        <v>85</v>
+      </c>
+      <c r="C149" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" t="s">
+        <v>182</v>
+      </c>
+      <c r="E149" t="s">
+        <v>183</v>
+      </c>
+      <c r="F149" t="s">
+        <v>184</v>
+      </c>
+      <c r="G149" t="s">
+        <v>6</v>
+      </c>
+      <c r="H149" t="s">
+        <v>18</v>
+      </c>
+      <c r="I149" t="s">
+        <v>32</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>125</v>
+      </c>
+      <c r="B150" t="s">
+        <v>85</v>
+      </c>
+      <c r="C150" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" t="s">
+        <v>185</v>
+      </c>
+      <c r="E150" t="s">
+        <v>186</v>
+      </c>
+      <c r="F150" t="s">
+        <v>187</v>
+      </c>
+      <c r="G150" t="s">
+        <v>18</v>
+      </c>
+      <c r="H150" t="s">
+        <v>18</v>
+      </c>
+      <c r="I150" t="s">
+        <v>32</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>125</v>
+      </c>
+      <c r="B151" t="s">
+        <v>85</v>
+      </c>
+      <c r="C151" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" t="s">
+        <v>188</v>
+      </c>
+      <c r="E151" t="s">
+        <v>188</v>
+      </c>
+      <c r="F151" t="s">
+        <v>189</v>
+      </c>
+      <c r="G151" t="s">
+        <v>6</v>
+      </c>
+      <c r="H151" t="s">
+        <v>47</v>
+      </c>
+      <c r="I151" t="s">
+        <v>32</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>190</v>
+      </c>
+      <c r="B152" t="s">
+        <v>191</v>
+      </c>
+      <c r="C152" t="s">
+        <v>35</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>190</v>
+      </c>
+      <c r="B153" t="s">
+        <v>191</v>
+      </c>
+      <c r="C153" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>190</v>
+      </c>
+      <c r="B154" t="s">
+        <v>191</v>
+      </c>
+      <c r="C154" t="s">
+        <v>38</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>190</v>
+      </c>
+      <c r="B155" t="s">
+        <v>191</v>
+      </c>
+      <c r="C155" t="s">
+        <v>38</v>
+      </c>
+      <c r="D155" t="s">
+        <v>192</v>
+      </c>
+      <c r="E155" t="s">
+        <v>192</v>
+      </c>
+      <c r="F155" t="s">
+        <v>193</v>
+      </c>
+      <c r="G155" t="s">
+        <v>6</v>
+      </c>
+      <c r="H155" t="s">
+        <v>90</v>
+      </c>
+      <c r="I155" t="s">
+        <v>32</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>190</v>
+      </c>
+      <c r="B156" t="s">
+        <v>191</v>
+      </c>
+      <c r="C156" t="s">
+        <v>38</v>
+      </c>
+      <c r="D156" t="s">
+        <v>44</v>
+      </c>
+      <c r="E156" t="s">
+        <v>44</v>
+      </c>
+      <c r="F156" t="s">
+        <v>45</v>
+      </c>
+      <c r="G156" t="s">
+        <v>46</v>
+      </c>
+      <c r="H156" t="s">
+        <v>47</v>
+      </c>
+      <c r="I156" t="s">
+        <v>19</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>190</v>
+      </c>
+      <c r="B157" t="s">
+        <v>191</v>
+      </c>
+      <c r="C157" t="s">
+        <v>38</v>
+      </c>
+      <c r="D157" t="s">
+        <v>104</v>
+      </c>
+      <c r="E157" t="s">
+        <v>104</v>
+      </c>
+      <c r="F157" t="s">
+        <v>105</v>
+      </c>
+      <c r="G157" t="s">
+        <v>46</v>
+      </c>
+      <c r="H157" t="s">
+        <v>47</v>
+      </c>
+      <c r="I157" t="s">
+        <v>19</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>190</v>
+      </c>
+      <c r="B158" t="s">
+        <v>191</v>
+      </c>
+      <c r="C158" t="s">
+        <v>38</v>
+      </c>
+      <c r="D158" t="s">
+        <v>194</v>
+      </c>
+      <c r="E158" t="s">
+        <v>195</v>
+      </c>
+      <c r="F158" t="s">
+        <v>196</v>
+      </c>
+      <c r="G158" t="s">
+        <v>6</v>
+      </c>
+      <c r="H158" t="s">
+        <v>18</v>
+      </c>
+      <c r="I158" t="s">
+        <v>32</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>197</v>
+      </c>
+      <c r="B159" t="s">
+        <v>191</v>
+      </c>
+      <c r="C159" t="s">
+        <v>38</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>197</v>
+      </c>
+      <c r="B160" t="s">
+        <v>191</v>
+      </c>
+      <c r="C160" t="s">
+        <v>13</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>197</v>
+      </c>
+      <c r="B161" t="s">
+        <v>191</v>
+      </c>
+      <c r="C161" t="s">
+        <v>35</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>198</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B162" t="s">
         <v>191</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C162" t="s">
+        <v>38</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>198</v>
+      </c>
+      <c r="B163" t="s">
+        <v>191</v>
+      </c>
+      <c r="C163" t="s">
+        <v>13</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>198</v>
+      </c>
+      <c r="B164" t="s">
+        <v>191</v>
+      </c>
+      <c r="C164" t="s">
         <v>37</v>
       </c>
-      <c r="D146">
-        <v>0</v>
-      </c>
-      <c r="E146">
-        <v>0</v>
-      </c>
-      <c r="F146">
-        <v>0</v>
-      </c>
-      <c r="G146">
-        <v>0</v>
-      </c>
-      <c r="H146">
-        <v>0</v>
-      </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
-      <c r="J146" s="1">
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164" s="1">
         <v>0</v>
       </c>
     </row>
